--- a/biology/Zoologie/Hipposideros/Hipposideros.xlsx
+++ b/biology/Zoologie/Hipposideros/Hipposideros.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hipposideros est un genre de chauves-souris de la famille des Hipposideridae.
 Cette famille est sœur de celle des Rhinolophidae, avec laquelle elle était associée auparavant.
@@ -512,9 +524,11 @@
           <t>Quelques critères</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les oreilles sont en forme de feuille[1]. Le nez, protubérant, assez gros, est en forme de châtaigne couchée, assez ovale. Beaucoup portent au-dessus des yeux des plis et bourrelets. Ces bourrelets traversent parfois le front et joignent les 2 yeux. Souvent, la fourrure est dense et épaisse sur le corps, d’une couleur assez homogène et les ailes sont plus foncées. Également,[pas clair] la membrane arrière (en parlant d'une zone du patagium) engloberait les pattes postérieures.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les oreilles sont en forme de feuille. Le nez, protubérant, assez gros, est en forme de châtaigne couchée, assez ovale. Beaucoup portent au-dessus des yeux des plis et bourrelets. Ces bourrelets traversent parfois le front et joignent les 2 yeux. Souvent, la fourrure est dense et épaisse sur le corps, d’une couleur assez homogène et les ailes sont plus foncées. Également,[pas clair] la membrane arrière (en parlant d'une zone du patagium) engloberait les pattes postérieures.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon la troisième édition de Mammal Species of the World (version 3, 2005)  (14 juin 2014)[2], de 2005 :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon la troisième édition de Mammal Species of the World (version 3, 2005)  (14 juin 2014), de 2005 :
 Hipposideros abae J. A. Allen, 1917
 Hipposideros armiger (Hodgson, 1835) — Phyllorhine de l'Himalaya
 Hipposideros ater Templeton, 1848
@@ -617,9 +633,43 @@
 Hipposideros griffini Vu Dinh Trong, Puechmaille, Denzinger, Dietz, Csorba, Bates, Teeling &amp; Schnitzler, 2012
 Et reconnues par ITIS, mais pas par MSW :
 Hipposideros sabanus Thomas, 1898
-Hipposideros schistaceus K. Andersen, 1918
-Espèces fossiles
-Selon Paleobiology Database en 2024, le nombre d'espèces fossiles est de dix[3] :
+Hipposideros schistaceus K. Andersen, 1918</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hipposideros</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hipposideros</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Espèces fossiles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Paleobiology Database en 2024, le nombre d'espèces fossiles est de dix :
 †Hipposideros (Pseudorhinolophus) africanum Ravel et al., 2016
 †Hipposideros (Pseudorhinolophus) bouziguensis Sigé, 1968
 †Hipposideros bernardsigei Hand, 1997
